--- a/data/trans_camb/P32C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.8649720745412024</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2659706757014238</v>
+        <v>0.2659706757014236</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3543933059861805</v>
+        <v>-0.3399982566216002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.08418833300090423</v>
+        <v>-0.1242047838719887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9375227633894296</v>
+        <v>-0.9108848776800108</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.201490177346897</v>
+        <v>-0.08753814895492312</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1172079399807019</v>
+        <v>-0.1182174331320624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.468505939367576</v>
+        <v>-0.4105376425401956</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.14131808753223</v>
+        <v>2.304338425650212</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.984179969109857</v>
+        <v>3.235948481067678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9747097226420315</v>
+        <v>1.009696780490622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.962626484434884</v>
+        <v>2.929723316898943</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>2.669667754640713</v>
+        <v>2.819074785517427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.800692549545435</v>
+        <v>1.80140515895664</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.115131337315758</v>
+        <v>2.10680767748977</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.004642908248033</v>
+        <v>1.057216877335071</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>1.936605219756508</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5954876625800332</v>
+        <v>0.5954876625800328</v>
       </c>
     </row>
     <row r="8">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5736196113766667</v>
+        <v>-0.5900051451576794</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4633096194916553</v>
+        <v>-0.5508621646085466</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
@@ -790,13 +790,13 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.5557087035281146</v>
+        <v>-0.4490898764096611</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5619754744232006</v>
+        <v>-0.4365848611853894</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7300365683900284</v>
+        <v>-0.7145125780662225</v>
       </c>
     </row>
     <row r="9">
@@ -806,27 +806,23 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>10.17418042471942</v>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>11.96834858221902</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>5.289015877403693</v>
-      </c>
+        <v>18.68066771726103</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="n">
-        <v>11.38639942380894</v>
-      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>14.02296236677467</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>6.562770434413011</v>
-      </c>
+        <v>14.07099420924216</v>
+      </c>
+      <c r="K9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -846,7 +842,7 @@
         <v>0.04249642839297373</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.03355492867740412</v>
+        <v>-0.03355492867740378</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -875,29 +871,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.499622205155807</v>
+        <v>-1.492353740591295</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.369901460072913</v>
+        <v>-1.352245671775015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.589848880159383</v>
+        <v>-1.575253482583912</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4520365352873346</v>
+        <v>0.4361368393329412</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.096442559962836</v>
+        <v>-1.023804895329595</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9140005470062514</v>
+        <v>-0.8027590342106138</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6503126359986383</v>
+        <v>-0.699603490927547</v>
       </c>
     </row>
     <row r="12">
@@ -908,29 +904,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.390899388854325</v>
+        <v>1.303136144609311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.647929646663099</v>
+        <v>1.52512975388942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.351741651767348</v>
+        <v>1.396230061265153</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>2.082358790445443</v>
+        <v>1.944151434954821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.563756136359582</v>
+        <v>4.626126461816805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.023757781756619</v>
+        <v>0.9242869858059404</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.185684923179047</v>
+        <v>1.175049720717005</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.712769705268266</v>
+        <v>1.59721811427485</v>
       </c>
     </row>
     <row r="13">
@@ -947,7 +943,7 @@
         <v>0.02819048952600332</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02225904390550024</v>
+        <v>-0.02225904390550001</v>
       </c>
       <c r="F13" s="6" t="inlineStr"/>
       <c r="G13" s="6" t="inlineStr">
@@ -978,25 +974,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6834304399126948</v>
+        <v>-0.6774926644395127</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6394662045195274</v>
+        <v>-0.6534813024969139</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7243007029996441</v>
+        <v>-0.6812630388781495</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.6969885229342396</v>
+        <v>-0.7073229549729108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6057134829037771</v>
+        <v>-0.5809492991153992</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4880564045396711</v>
+        <v>-0.5113299646590853</v>
       </c>
     </row>
     <row r="15">
@@ -1007,25 +1003,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.169889705216481</v>
+        <v>1.936811625602527</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.722329015069999</v>
+        <v>2.186849119522107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.754691965908064</v>
+        <v>1.974446787255355</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.134333716829882</v>
+        <v>2.024333667922945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.459972924770433</v>
+        <v>2.478804652701162</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.10607171354604</v>
+        <v>2.947517959395766</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1042,7 @@
         <v>-1.442708852159827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.744584788136982</v>
+        <v>-2.744584788136983</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1075,13 +1071,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.863926569270297</v>
+        <v>-4.092288768140271</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.919023736343384</v>
+        <v>-4.13417702455498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.304673370783173</v>
+        <v>-5.222629135586296</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1089,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.890645260999899</v>
+        <v>-2.859619771700157</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.210691903431092</v>
+        <v>-3.245396259449196</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.498056970261068</v>
+        <v>-3.774855925676252</v>
       </c>
     </row>
     <row r="18">
@@ -1106,27 +1102,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.188502669544803</v>
+        <v>1.036463158341932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8696457400045743</v>
+        <v>0.9517849201372084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7354076962652057</v>
+        <v>-0.8218463681820516</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>5.751966519588823</v>
+        <v>6.162389733914532</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7425333873837705</v>
+        <v>0.7762388973780475</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3021163239705751</v>
+        <v>0.2918053763326173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03453949550153949</v>
+        <v>-0.0204996376296513</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1139,7 @@
         <v>-0.4263530008762738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.8110866990451802</v>
+        <v>-0.8110866990451803</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
@@ -1170,10 +1166,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7720244187331072</v>
+        <v>-0.7583636346398296</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7906855455747911</v>
+        <v>-0.7842200819940375</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
@@ -1182,10 +1178,10 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.7857314422761366</v>
+        <v>-0.7469204868650188</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.817964402032344</v>
+        <v>-0.8291915033280237</v>
       </c>
       <c r="K20" s="6" t="n">
         <v>-1</v>
@@ -1199,25 +1195,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6584483663757916</v>
+        <v>0.6334169490336469</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6323989744856529</v>
+        <v>0.8427977701516084</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06867009938846583</v>
+        <v>-0.05774587496376243</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.667736754469473</v>
+        <v>0.6749213306114621</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4358711484587069</v>
+        <v>0.3187610540440639</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6303833259819256</v>
+        <v>0.4205882638108417</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1234,7 @@
         <v>-1.146136614383256</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.7074026898502277</v>
+        <v>-0.707402689850228</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.134272955879958</v>
@@ -1256,7 +1252,7 @@
         <v>-1.242458960296873</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.8972766159063884</v>
+        <v>-0.8972766159063887</v>
       </c>
     </row>
     <row r="23">
@@ -1267,31 +1263,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.336643939136794</v>
+        <v>-1.153807486097699</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.01599116644361</v>
+        <v>-2.830427953592563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.564463174395027</v>
+        <v>-2.41768886280267</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.794109782783958</v>
+        <v>-4.883631507239905</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.349281718624121</v>
+        <v>-4.361335378178635</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.106415627231418</v>
+        <v>-4.025317572502134</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.910861845449313</v>
+        <v>-1.973675752316854</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.751406740602032</v>
+        <v>-2.521993054036618</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.287480301196412</v>
+        <v>-2.362866526235937</v>
       </c>
     </row>
     <row r="24">
@@ -1302,31 +1298,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.769373663923258</v>
+        <v>2.730265541258446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.265113963737975</v>
+        <v>0.4048785906534338</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7612626065923225</v>
+        <v>0.8704702411388223</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.5068939417143269</v>
+        <v>-0.4611980946464742</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5075294509819513</v>
+        <v>0.4695613555865944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.105193026589919</v>
+        <v>1.160136062371947</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.034033771273313</v>
+        <v>0.9413891531271186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.0638859316481617</v>
+        <v>-0.0143837797035411</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6018080999974744</v>
+        <v>0.4555755137265151</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1339,7 @@
         <v>-0.4826736024030732</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2979091675239491</v>
+        <v>-0.2979091675239492</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.7959082623197289</v>
@@ -1352,7 +1348,7 @@
         <v>-0.5275496175699512</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4508350808084665</v>
+        <v>-0.4508350808084666</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1972050539786343</v>
@@ -1361,7 +1357,7 @@
         <v>-0.4996035143240361</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3608027025057612</v>
+        <v>-0.3608027025057614</v>
       </c>
     </row>
     <row r="26">
@@ -1372,31 +1368,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4346658784504886</v>
+        <v>-0.4052692625866312</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.840166842025352</v>
+        <v>-0.8241261335464451</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.730650196077491</v>
+        <v>-0.7362999622430749</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8932987860275782</v>
+        <v>-0.9130867457969343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8945880665361912</v>
+        <v>-0.9114723254090646</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5771608685472475</v>
+        <v>-0.5831870366348324</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.783009307156703</v>
+        <v>-0.7695119097515917</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6991423951972884</v>
+        <v>-0.7160375208350164</v>
       </c>
     </row>
     <row r="27">
@@ -1407,31 +1403,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.913797035936814</v>
+        <v>1.752978567545876</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2645934584315106</v>
+        <v>0.405005382440923</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5473125345508357</v>
+        <v>0.7051536240409549</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5058671187545947</v>
+        <v>0.120830615250198</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7961165173796804</v>
+        <v>0.6345868176197411</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.689227334251603</v>
+        <v>1.185910022082821</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7521022511523716</v>
+        <v>0.6221141128781764</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.004639138532126879</v>
+        <v>0.03439681331250923</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4222890605789449</v>
+        <v>0.2989682527035052</v>
       </c>
     </row>
     <row r="28">
@@ -1452,7 +1448,7 @@
         <v>-0.2624315852143378</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.6925258405170291</v>
+        <v>-0.6925258405170294</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.6224639335560446</v>
@@ -1481,31 +1477,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7919098307752627</v>
+        <v>-0.7987914314226744</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.137781668381769</v>
+        <v>-1.0549947576733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.561438161420521</v>
+        <v>-1.484053159641973</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.538102195668321</v>
+        <v>-1.497589316134516</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.305387215501302</v>
+        <v>-1.38169184209469</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7125076215794478</v>
+        <v>-0.6005016085573891</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7742132378682112</v>
+        <v>-0.8524003258136197</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9591504698496331</v>
+        <v>-1.007811054414967</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.017857563832179</v>
+        <v>-1.061989225475125</v>
       </c>
     </row>
     <row r="30">
@@ -1516,31 +1512,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9315533200221718</v>
+        <v>1.107180834374682</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5127849282766767</v>
+        <v>0.6619770886877404</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03609755696156174</v>
+        <v>0.1732107648644049</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0128215125544342</v>
+        <v>0.0152507443209115</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2937187928805597</v>
+        <v>0.2862428700146256</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.621890292964308</v>
+        <v>1.560382118501992</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5284046864265234</v>
+        <v>0.4505220358791368</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2925995501025294</v>
+        <v>0.2482985992079942</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2785470690643696</v>
+        <v>0.3054668984104898</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1553,7 @@
         <v>-0.1399085628509789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3692021103510455</v>
+        <v>-0.3692021103510456</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.6807230235670996</v>
@@ -1586,31 +1582,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3324030326202347</v>
+        <v>-0.3610461478788549</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4860115628541744</v>
+        <v>-0.4709512883834293</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6596913381860458</v>
+        <v>-0.6379188108947157</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9349545146906074</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8644195752783466</v>
+        <v>-0.8580898915778017</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5785512770760051</v>
+        <v>-0.5604662853128585</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4153889102817447</v>
+        <v>-0.4392578807727551</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4983109229777724</v>
+        <v>-0.5084518801521393</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5135057029386554</v>
+        <v>-0.5395339681945857</v>
       </c>
     </row>
     <row r="33">
@@ -1621,31 +1617,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6356595420249735</v>
+        <v>0.7394413733598499</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3493648776071345</v>
+        <v>0.4249703980381495</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06838443432362111</v>
+        <v>0.1192902570761392</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4942680955437116</v>
+        <v>0.3296846138147117</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8804556193222486</v>
+        <v>0.643531822284846</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.846427560139432</v>
+        <v>3.141584877726153</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4099941886665271</v>
+        <v>0.3729012918452119</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2480405960747986</v>
+        <v>0.2408706877458691</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2433555634022638</v>
+        <v>0.2334689465236724</v>
       </c>
     </row>
     <row r="34">
